--- a/mex_corners.xlsx
+++ b/mex_corners.xlsx
@@ -55433,10 +55433,10 @@
         <v>990.0</v>
       </c>
       <c r="W442" t="n">
-        <v>337.0</v>
+        <v>353.0</v>
       </c>
       <c r="X442" t="n">
-        <v>295.0</v>
+        <v>311.0</v>
       </c>
       <c r="Y442" t="n">
         <v>40.0</v>
@@ -55469,7 +55469,7 @@
         <v>0.0</v>
       </c>
       <c r="AI442" t="n">
-        <v>267.0</v>
+        <v>282.0</v>
       </c>
       <c r="AJ442" t="n">
         <v>2.0</v>
@@ -70575,16 +70575,16 @@
         <v>990.0</v>
       </c>
       <c r="W576" t="n">
-        <v>511.0</v>
+        <v>534.0</v>
       </c>
       <c r="X576" t="n">
-        <v>464.0</v>
+        <v>483.0</v>
       </c>
       <c r="Y576" t="n">
-        <v>46.0</v>
+        <v>50.0</v>
       </c>
       <c r="Z576" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="AA576" t="n">
         <v>1.0</v>
@@ -70596,13 +70596,13 @@
         <v>31.0</v>
       </c>
       <c r="AD576" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="AE576" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AF576" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AG576" t="n">
         <v>5.0</v>
@@ -70611,7 +70611,7 @@
         <v>0.0</v>
       </c>
       <c r="AI576" t="n">
-        <v>430.0</v>
+        <v>450.0</v>
       </c>
       <c r="AJ576" t="n">
         <v>1.0</v>
@@ -76790,16 +76790,16 @@
         <v>989.0</v>
       </c>
       <c r="W631" t="n">
-        <v>297.0</v>
+        <v>346.0</v>
       </c>
       <c r="X631" t="n">
-        <v>237.0</v>
+        <v>277.0</v>
       </c>
       <c r="Y631" t="n">
-        <v>59.0</v>
+        <v>68.0</v>
       </c>
       <c r="Z631" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA631" t="n">
         <v>1.0</v>
@@ -76808,31 +76808,31 @@
         <v>3.0</v>
       </c>
       <c r="AC631" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="AD631" t="n">
         <v>24.0</v>
       </c>
       <c r="AE631" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="AF631" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="AG631" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AH631" t="n">
         <v>0.0</v>
       </c>
       <c r="AI631" t="n">
-        <v>206.0</v>
+        <v>244.0</v>
       </c>
       <c r="AJ631" t="n">
         <v>1.0</v>
       </c>
       <c r="AK631" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="632">
@@ -79796,7 +79796,7 @@
         <v>0.0</v>
       </c>
       <c r="H658" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="I658" t="s">
         <v>932</v>
@@ -79811,13 +79811,13 @@
         <v>902</v>
       </c>
       <c r="M658" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="N658" t="n">
         <v>2.0</v>
       </c>
       <c r="O658" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="P658" t="s">
         <v>1474</v>
@@ -79841,49 +79841,49 @@
         <v>990.0</v>
       </c>
       <c r="W658" t="n">
-        <v>449.0</v>
+        <v>447.0</v>
       </c>
       <c r="X658" t="n">
-        <v>400.0</v>
+        <v>396.0</v>
       </c>
       <c r="Y658" t="n">
-        <v>43.0</v>
+        <v>47.0</v>
       </c>
       <c r="Z658" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA658" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB658" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC658" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="AD658" t="n">
         <v>19.0</v>
       </c>
       <c r="AE658" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF658" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AG658" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH658" t="n">
         <v>0.0</v>
       </c>
       <c r="AI658" t="n">
-        <v>354.0</v>
+        <v>356.0</v>
       </c>
       <c r="AJ658" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="AK658" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="659">
@@ -79909,7 +79909,7 @@
         <v>0.0</v>
       </c>
       <c r="H659" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="I659" t="s">
         <v>932</v>
@@ -79924,13 +79924,13 @@
         <v>902</v>
       </c>
       <c r="M659" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="N659" t="n">
         <v>2.0</v>
       </c>
       <c r="O659" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="P659" t="s">
         <v>1474</v>
@@ -79954,25 +79954,25 @@
         <v>990.0</v>
       </c>
       <c r="W659" t="n">
-        <v>389.0</v>
+        <v>532.0</v>
       </c>
       <c r="X659" t="n">
-        <v>330.0</v>
+        <v>483.0</v>
       </c>
       <c r="Y659" t="n">
-        <v>59.0</v>
+        <v>48.0</v>
       </c>
       <c r="Z659" t="n">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA659" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB659" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC659" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="AD659" t="n">
         <v>19.0</v>
@@ -79984,19 +79984,19 @@
         <v>1.0</v>
       </c>
       <c r="AG659" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AH659" t="n">
         <v>0.0</v>
       </c>
       <c r="AI659" t="n">
-        <v>293.0</v>
+        <v>452.0</v>
       </c>
       <c r="AJ659" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK659" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="660">
@@ -80694,13 +80694,13 @@
         <v>902</v>
       </c>
       <c r="F666" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="G666" t="n">
         <v>2.0</v>
       </c>
       <c r="H666" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="I666" t="s">
         <v>1209</v>
@@ -80721,7 +80721,7 @@
         <v>2.0</v>
       </c>
       <c r="O666" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="P666" t="s">
         <v>1477</v>
@@ -80745,25 +80745,25 @@
         <v>990.0</v>
       </c>
       <c r="W666" t="n">
-        <v>532.0</v>
+        <v>391.0</v>
       </c>
       <c r="X666" t="n">
-        <v>483.0</v>
+        <v>332.0</v>
       </c>
       <c r="Y666" t="n">
-        <v>48.0</v>
+        <v>59.0</v>
       </c>
       <c r="Z666" t="n">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="AA666" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB666" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC666" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="AD666" t="n">
         <v>19.0</v>
@@ -80775,19 +80775,19 @@
         <v>1.0</v>
       </c>
       <c r="AG666" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH666" t="n">
         <v>0.0</v>
       </c>
       <c r="AI666" t="n">
-        <v>452.0</v>
+        <v>295.0</v>
       </c>
       <c r="AJ666" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK666" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="667">
@@ -80807,13 +80807,13 @@
         <v>902</v>
       </c>
       <c r="F667" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="G667" t="n">
         <v>2.0</v>
       </c>
       <c r="H667" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="I667" t="s">
         <v>1209</v>
@@ -80834,7 +80834,7 @@
         <v>2.0</v>
       </c>
       <c r="O667" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="P667" t="s">
         <v>1477</v>
@@ -80858,49 +80858,49 @@
         <v>980.0</v>
       </c>
       <c r="W667" t="n">
-        <v>356.0</v>
+        <v>549.0</v>
       </c>
       <c r="X667" t="n">
-        <v>313.0</v>
+        <v>497.0</v>
       </c>
       <c r="Y667" t="n">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="Z667" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA667" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB667" t="n">
         <v>9.0</v>
       </c>
-      <c r="AA667" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB667" t="n">
+      <c r="AC667" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AD667" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AE667" t="n">
         <v>5.0</v>
       </c>
-      <c r="AC667" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="AD667" t="n">
+      <c r="AF667" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG667" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH667" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI667" t="n">
+        <v>447.0</v>
+      </c>
+      <c r="AJ667" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK667" t="n">
         <v>12.0</v>
-      </c>
-      <c r="AE667" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AF667" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AG667" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH667" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI667" t="n">
-        <v>286.0</v>
-      </c>
-      <c r="AJ667" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AK667" t="n">
-        <v>6.0</v>
       </c>
     </row>
     <row r="668">
